--- a/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha2_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha2_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5172413793103449</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.4880174291938998</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.5166666666666667</v>
+        <v>0.466403162055336</v>
       </c>
       <c r="E3">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="F3">
+        <v>0.444</v>
+      </c>
+      <c r="G3">
+        <v>0.4979253112033195</v>
+      </c>
+      <c r="H3">
         <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.467680608365019</v>
-      </c>
-      <c r="G3">
-        <v>0.4968814968814969</v>
-      </c>
-      <c r="H3">
-        <v>0.502</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5263157894736842</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="C4">
-        <v>0.4922737306843267</v>
+        <v>0.5107296137339056</v>
       </c>
       <c r="D4">
-        <v>0.5704697986577181</v>
+        <v>0.4457142857142857</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.5162721893491125</v>
       </c>
       <c r="F4">
-        <v>0.4692737430167598</v>
+        <v>0.435064935064935</v>
       </c>
       <c r="G4">
-        <v>0.5154639175257731</v>
+        <v>0.5163120567375886</v>
       </c>
       <c r="H4">
-        <v>0.494</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4827586206896552</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="C5">
-        <v>0.5010438413361169</v>
+        <v>0.511482254697286</v>
       </c>
       <c r="D5">
-        <v>0.5121951219512195</v>
+        <v>0.4462809917355372</v>
       </c>
       <c r="E5">
-        <v>0.4986807387862797</v>
+        <v>0.516260162601626</v>
       </c>
       <c r="F5">
-        <v>0.4274193548387097</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="G5">
-        <v>0.5100942126514132</v>
+        <v>0.5109961190168176</v>
       </c>
       <c r="H5">
-        <v>0.482</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4367816091954023</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="C6">
-        <v>0.5009596928982726</v>
+        <v>0.4962546816479401</v>
       </c>
       <c r="D6">
-        <v>0.4444444444444444</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="E6">
-        <v>0.5134788189987163</v>
+        <v>0.5082382762991128</v>
       </c>
       <c r="F6">
-        <v>0.4077669902912621</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G6">
-        <v>0.5082174462705437</v>
+        <v>0.5080946450809465</v>
       </c>
       <c r="H6">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4752475247524752</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C7">
-        <v>0.5069444444444444</v>
+        <v>0.4921465968586388</v>
       </c>
       <c r="D7">
-        <v>0.4766355140186916</v>
+        <v>0.65625</v>
       </c>
       <c r="E7">
-        <v>0.5169385194479298</v>
+        <v>0.4981084489281211</v>
       </c>
       <c r="F7">
-        <v>0.3978494623655914</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="G7">
-        <v>0.5098039215686274</v>
+        <v>0.5085574572127139</v>
       </c>
       <c r="H7">
-        <v>0.484</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4505494505494506</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="C8">
-        <v>0.5041322314049587</v>
+        <v>0.4910858995137763</v>
       </c>
       <c r="D8">
-        <v>0.5229357798165137</v>
+        <v>0.66</v>
       </c>
       <c r="E8">
-        <v>0.5157232704402516</v>
+        <v>0.5006180469715699</v>
       </c>
       <c r="F8">
-        <v>0.4534883720930232</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G8">
-        <v>0.5036764705882353</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="H8">
-        <v>0.476</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4205607476635514</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="C9">
-        <v>0.5134328358208955</v>
+        <v>0.5137195121951219</v>
       </c>
       <c r="D9">
-        <v>0.5289256198347108</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="E9">
-        <v>0.5113636363636364</v>
+        <v>0.50625</v>
       </c>
       <c r="F9">
-        <v>0.5151515151515151</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="G9">
-        <v>0.4975609756097561</v>
+        <v>0.4987531172069826</v>
       </c>
       <c r="H9">
-        <v>0.472</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5363636363636364</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C10">
-        <v>0.5234708392603129</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="D10">
-        <v>0.49</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="E10">
-        <v>0.5095541401273885</v>
+        <v>0.5153751537515375</v>
       </c>
       <c r="F10">
-        <v>0.4565217391304348</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="G10">
-        <v>0.4932182490752158</v>
+        <v>0.4933171324422843</v>
       </c>
       <c r="H10">
-        <v>0.466</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5178571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.4979702300405954</v>
+        <v>0.5078328981723238</v>
       </c>
       <c r="D11">
-        <v>0.4587155963302753</v>
+        <v>0.3563218390804598</v>
       </c>
       <c r="E11">
-        <v>0.5113924050632911</v>
+        <v>0.5135467980295566</v>
       </c>
       <c r="F11">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.5037406483790524</v>
+        <v>0.4926650366748166</v>
       </c>
       <c r="H11">
-        <v>0.45</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C12">
-        <v>0.5076335877862596</v>
+        <v>0.5036585365853659</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="E12">
-        <v>0.5108556832694764</v>
+        <v>0.5207823960880196</v>
       </c>
       <c r="F12">
-        <v>0.4770642201834863</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G12">
-        <v>0.5050251256281407</v>
+        <v>0.4945586457073761</v>
       </c>
       <c r="H12">
-        <v>0.444</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4403669724770642</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C13">
-        <v>0.5088547815820543</v>
+        <v>0.4976905311778291</v>
       </c>
       <c r="D13">
-        <v>0.4455445544554456</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="E13">
-        <v>0.5169811320754717</v>
+        <v>0.5173697270471465</v>
       </c>
       <c r="F13">
-        <v>0.4761904761904762</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="G13">
-        <v>0.5062189054726368</v>
+        <v>0.4938118811881188</v>
       </c>
       <c r="H13">
-        <v>0.432</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4912280701754386</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="C14">
-        <v>0.5150837988826815</v>
+        <v>0.492942453854506</v>
       </c>
       <c r="D14">
-        <v>0.4318181818181818</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="E14">
-        <v>0.5179677819083024</v>
+        <v>0.5148883374689827</v>
       </c>
       <c r="F14">
-        <v>0.4086021505376344</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="G14">
-        <v>0.5117139334155364</v>
+        <v>0.5018541409147095</v>
       </c>
       <c r="H14">
-        <v>0.426</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.42</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C15">
-        <v>0.5100316789862724</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="D15">
-        <v>0.5051546391752577</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E15">
-        <v>0.5163240628778718</v>
+        <v>0.5154130702836005</v>
       </c>
       <c r="F15">
-        <v>0.4148936170212766</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G15">
-        <v>0.5096618357487923</v>
+        <v>0.4987623762376238</v>
       </c>
       <c r="H15">
-        <v>0.43</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4406779661016949</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C16">
-        <v>0.5242814667988107</v>
+        <v>0.4965243296921549</v>
       </c>
       <c r="D16">
-        <v>0.4936708860759494</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="E16">
-        <v>0.5159313725490197</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="F16">
-        <v>0.4117647058823529</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="G16">
-        <v>0.51338199513382</v>
+        <v>0.4944649446494465</v>
       </c>
       <c r="H16">
-        <v>0.422</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="C17">
-        <v>0.5176695319961796</v>
+        <v>0.4895238095238095</v>
       </c>
       <c r="D17">
-        <v>0.4680851063829787</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="E17">
-        <v>0.5138055222088835</v>
+        <v>0.5221130221130221</v>
       </c>
       <c r="F17">
-        <v>0.4479166666666667</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="G17">
-        <v>0.5144578313253012</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H17">
-        <v>0.42</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5585585585585585</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C18">
-        <v>0.5090579710144928</v>
+        <v>0.4870420017873101</v>
       </c>
       <c r="D18">
-        <v>0.5232558139534884</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.5122549019607843</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="F18">
-        <v>0.4683544303797468</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="G18">
-        <v>0.511002444987775</v>
+        <v>0.4877750611246944</v>
       </c>
       <c r="H18">
-        <v>0.424</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5636363636363636</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>0.5087719298245614</v>
+        <v>0.492320819112628</v>
       </c>
       <c r="D19">
-        <v>0.504950495049505</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="E19">
-        <v>0.5135802469135803</v>
+        <v>0.5321212121212121</v>
       </c>
       <c r="F19">
-        <v>0.4337349397590362</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G19">
-        <v>0.5054811205846529</v>
+        <v>0.4945454545454546</v>
       </c>
       <c r="H19">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5537190082644629</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C20">
-        <v>0.5059422750424448</v>
+        <v>0.4938875305623472</v>
       </c>
       <c r="D20">
-        <v>0.4953271028037383</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="E20">
-        <v>0.510178117048346</v>
+        <v>0.528554070473876</v>
       </c>
       <c r="F20">
-        <v>0.4193548387096774</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="G20">
-        <v>0.5055624227441285</v>
+        <v>0.4932844932844933</v>
       </c>
       <c r="H20">
-        <v>0.434</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4959349593495935</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="C21">
-        <v>0.5073529411764706</v>
+        <v>0.5019485580670304</v>
       </c>
       <c r="D21">
-        <v>0.4811320754716981</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E21">
-        <v>0.5081761006289308</v>
+        <v>0.5315533980582524</v>
       </c>
       <c r="F21">
-        <v>0.4684684684684685</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="G21">
-        <v>0.5030599755201959</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="H21">
-        <v>0.444</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C22">
-        <v>0.5156494522691706</v>
+        <v>0.5045385779122542</v>
       </c>
       <c r="D22">
-        <v>0.4680851063829787</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="E22">
-        <v>0.5201465201465202</v>
+        <v>0.5251533742331288</v>
       </c>
       <c r="F22">
-        <v>0.495049504950495</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="G22">
-        <v>0.501219512195122</v>
+        <v>0.4882280049566295</v>
       </c>
       <c r="H22">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5686274509803921</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C23">
-        <v>0.5141579731743666</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="D23">
-        <v>0.4375</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="E23">
-        <v>0.5188335358444714</v>
+        <v>0.5253399258343634</v>
       </c>
       <c r="F23">
-        <v>0.4146341463414634</v>
+        <v>0.55</v>
       </c>
       <c r="G23">
-        <v>0.5042527339003645</v>
+        <v>0.4833538840937115</v>
       </c>
       <c r="H23">
-        <v>0.434</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5876288659793815</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C24">
-        <v>0.5081967213114754</v>
+        <v>0.5017818959372773</v>
       </c>
       <c r="D24">
-        <v>0.4819277108433735</v>
+        <v>0.42</v>
       </c>
       <c r="E24">
-        <v>0.5143884892086331</v>
+        <v>0.5248138957816377</v>
       </c>
       <c r="F24">
-        <v>0.4886363636363636</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G24">
-        <v>0.5053892215568863</v>
+        <v>0.4806973848069738</v>
       </c>
       <c r="H24">
-        <v>0.44</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5154639175257731</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>0.510958904109589</v>
+        <v>0.5082872928176796</v>
       </c>
       <c r="D25">
-        <v>0.4823529411764706</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="E25">
-        <v>0.519277108433735</v>
+        <v>0.5264483627204031</v>
       </c>
       <c r="F25">
-        <v>0.4659090909090909</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="G25">
-        <v>0.4957780458383595</v>
+        <v>0.4911392405063291</v>
       </c>
       <c r="H25">
-        <v>0.454</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>0.5142857142857142</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="D26">
-        <v>0.4941176470588236</v>
+        <v>0.4051724137931034</v>
       </c>
       <c r="E26">
-        <v>0.5194174757281553</v>
+        <v>0.5194968553459119</v>
       </c>
       <c r="F26">
-        <v>0.46875</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="G26">
-        <v>0.4963592233009709</v>
+        <v>0.4981226533166458</v>
       </c>
       <c r="H26">
-        <v>0.468</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5185185185185185</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C27">
-        <v>0.5152895250487963</v>
+        <v>0.5045278137128072</v>
       </c>
       <c r="D27">
-        <v>0.4705882352941176</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E27">
-        <v>0.5122850122850123</v>
+        <v>0.5174129353233831</v>
       </c>
       <c r="F27">
-        <v>0.4315789473684211</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="G27">
-        <v>0.4833538840937115</v>
+        <v>0.4981458590852905</v>
       </c>
       <c r="H27">
-        <v>0.482</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4811320754716981</v>
+        <v>0.53</v>
       </c>
       <c r="C28">
-        <v>0.5123652504755866</v>
+        <v>0.5062034739454094</v>
       </c>
       <c r="D28">
-        <v>0.4536082474226804</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E28">
-        <v>0.5223880597014925</v>
+        <v>0.5067155067155067</v>
       </c>
       <c r="F28">
-        <v>0.4845360824742268</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="G28">
-        <v>0.4868585732165207</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
-        <v>0.476</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4795918367346939</v>
       </c>
       <c r="C29">
-        <v>0.5168608215818516</v>
+        <v>0.5054086538461539</v>
       </c>
       <c r="D29">
-        <v>0.4862385321100918</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="E29">
-        <v>0.5230961298377028</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="F29">
-        <v>0.4215686274509804</v>
+        <v>0.48</v>
       </c>
       <c r="G29">
-        <v>0.4819875776397515</v>
+        <v>0.4975845410628019</v>
       </c>
       <c r="H29">
-        <v>0.474</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5436893203883495</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="C30">
-        <v>0.521608643457383</v>
+        <v>0.5105017502917153</v>
       </c>
       <c r="D30">
-        <v>0.4711538461538461</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E30">
-        <v>0.510828025477707</v>
+        <v>0.5121654501216545</v>
       </c>
       <c r="F30">
-        <v>0.4835164835164835</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="G30">
-        <v>0.48375</v>
+        <v>0.4951923076923077</v>
       </c>
       <c r="H30">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5306122448979592</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C31">
-        <v>0.5195107746068724</v>
+        <v>0.5148741418764302</v>
       </c>
       <c r="D31">
-        <v>0.3425925925925926</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="E31">
-        <v>0.5082174462705437</v>
+        <v>0.5062344139650873</v>
       </c>
       <c r="F31">
-        <v>0.5576923076923077</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="G31">
-        <v>0.4790123456790124</v>
+        <v>0.4969549330085262</v>
       </c>
       <c r="H31">
-        <v>0.454</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5267857142857143</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C32">
-        <v>0.5204711160964667</v>
+        <v>0.5064138315672058</v>
       </c>
       <c r="D32">
-        <v>0.3364485981308411</v>
+        <v>0.4018691588785047</v>
       </c>
       <c r="E32">
-        <v>0.5148148148148148</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="F32">
-        <v>0.5204081632653061</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="G32">
-        <v>0.4810744810744811</v>
+        <v>0.498159509202454</v>
       </c>
       <c r="H32">
-        <v>0.452</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5098039215686274</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C33">
-        <v>0.51947339550192</v>
+        <v>0.5073489384866631</v>
       </c>
       <c r="D33">
-        <v>0.4329896907216495</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="E33">
-        <v>0.5166051660516605</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
-        <v>0.4891304347826087</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G33">
-        <v>0.4902912621359223</v>
+        <v>0.4987531172069826</v>
       </c>
       <c r="H33">
-        <v>0.436</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.504950495049505</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C34">
-        <v>0.5185774946921444</v>
+        <v>0.505055880787653</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="E34">
-        <v>0.5049019607843137</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="F34">
-        <v>0.4315789473684211</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="G34">
-        <v>0.4914841849148419</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="H34">
-        <v>0.442</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5473684210526316</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="C35">
-        <v>0.5200834637454356</v>
+        <v>0.5052192066805845</v>
       </c>
       <c r="D35">
-        <v>0.5684210526315789</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="E35">
-        <v>0.4937027707808564</v>
+        <v>0.5031446540880503</v>
       </c>
       <c r="F35">
-        <v>0.4242424242424243</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="G35">
-        <v>0.4993742177722152</v>
+        <v>0.499383477188656</v>
       </c>
       <c r="H35">
-        <v>0.434</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4951456310679612</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C36">
-        <v>0.5158530447911425</v>
+        <v>0.503582395087001</v>
       </c>
       <c r="D36">
+        <v>0.4680851063829787</v>
+      </c>
+      <c r="E36">
         <v>0.5</v>
       </c>
-      <c r="E36">
-        <v>0.4857849196538937</v>
-      </c>
       <c r="F36">
-        <v>0.4464285714285715</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G36">
-        <v>0.4944237918215613</v>
+        <v>0.5085574572127139</v>
       </c>
       <c r="H36">
-        <v>0.444</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5267857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C37">
-        <v>0.5200197726149284</v>
+        <v>0.5041975308641975</v>
       </c>
       <c r="D37">
-        <v>0.5212765957446809</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="E37">
-        <v>0.49625</v>
+        <v>0.4975728155339806</v>
       </c>
       <c r="F37">
-        <v>0.4597701149425287</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="G37">
-        <v>0.4956521739130435</v>
+        <v>0.5132211538461539</v>
       </c>
       <c r="H37">
-        <v>0.452</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5254237288135594</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C38">
-        <v>0.5187165775401069</v>
+        <v>0.5012118274357732</v>
       </c>
       <c r="D38">
-        <v>0.5052631578947369</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="E38">
-        <v>0.4981366459627329</v>
+        <v>0.5006165228113441</v>
       </c>
       <c r="F38">
-        <v>0.4433962264150944</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="G38">
-        <v>0.5006119951040392</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="H38">
-        <v>0.44</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4661016949152542</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="C39">
-        <v>0.5168806466951973</v>
+        <v>0.5033112582781457</v>
       </c>
       <c r="D39">
-        <v>0.4444444444444444</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="E39">
-        <v>0.4993849938499385</v>
+        <v>0.5049261083743842</v>
       </c>
       <c r="F39">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>0.5066991473812423</v>
       </c>
       <c r="H39">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4901960784313725</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="C40">
-        <v>0.5166821130676552</v>
+        <v>0.503700277520814</v>
       </c>
       <c r="D40">
-        <v>0.4482758620689655</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="E40">
-        <v>0.5096618357487923</v>
+        <v>0.5164433617539586</v>
       </c>
       <c r="F40">
-        <v>0.4375</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="G40">
-        <v>0.5061124694376528</v>
+        <v>0.5110565110565111</v>
       </c>
       <c r="H40">
-        <v>0.44</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5779816513761468</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="C41">
-        <v>0.5164785553047404</v>
+        <v>0.5052012663952963</v>
       </c>
       <c r="D41">
-        <v>0.5421686746987951</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="E41">
-        <v>0.5109223300970874</v>
+        <v>0.5214198286413708</v>
       </c>
       <c r="F41">
-        <v>0.3720930232558139</v>
+        <v>0.42</v>
       </c>
       <c r="G41">
-        <v>0.501219512195122</v>
+        <v>0.507537688442211</v>
       </c>
       <c r="H41">
-        <v>0.44</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5294117647058824</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="C42">
-        <v>0.5118040089086859</v>
+        <v>0.5075088339222615</v>
       </c>
       <c r="D42">
-        <v>0.4945054945054945</v>
+        <v>0.4134615384615384</v>
       </c>
       <c r="E42">
-        <v>0.5080147965474723</v>
+        <v>0.5204460966542751</v>
       </c>
       <c r="F42">
-        <v>0.4130434782608696</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G42">
-        <v>0.5012285012285013</v>
+        <v>0.5118898623279099</v>
       </c>
       <c r="H42">
-        <v>0.442</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4301075268817204</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="C43">
-        <v>0.5145842403134523</v>
+        <v>0.5060658578856152</v>
       </c>
       <c r="D43">
-        <v>0.4574468085106383</v>
+        <v>0.4</v>
       </c>
       <c r="E43">
-        <v>0.5161691542288557</v>
+        <v>0.5124378109452736</v>
       </c>
       <c r="F43">
-        <v>0.404040404040404</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="G43">
-        <v>0.5043156596794082</v>
+        <v>0.5043370508054523</v>
       </c>
       <c r="H43">
-        <v>0.424</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.42</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="C44">
-        <v>0.5178571428571429</v>
+        <v>0.5066324347454001</v>
       </c>
       <c r="D44">
-        <v>0.4166666666666667</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="E44">
-        <v>0.5214723926380368</v>
+        <v>0.508641975308642</v>
       </c>
       <c r="F44">
-        <v>0.375</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="G44">
-        <v>0.4987684729064039</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="H44">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4622641509433962</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C45">
-        <v>0.5156445556946183</v>
+        <v>0.505258729490955</v>
       </c>
       <c r="D45">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E45">
-        <v>0.5293398533007335</v>
+        <v>0.4993849938499385</v>
       </c>
       <c r="F45">
-        <v>0.4285714285714285</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="G45">
-        <v>0.4950859950859951</v>
+        <v>0.5079559363525091</v>
       </c>
       <c r="H45">
-        <v>0.456</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4774774774774775</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="C46">
-        <v>0.5137014314928425</v>
+        <v>0.504789670970429</v>
       </c>
       <c r="D46">
-        <v>0.5056179775280899</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E46">
-        <v>0.5230024213075061</v>
+        <v>0.5092707045735476</v>
       </c>
       <c r="F46">
-        <v>0.3950617283950617</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="G46">
-        <v>0.4897466827503016</v>
+        <v>0.5124688279301746</v>
       </c>
       <c r="H46">
-        <v>0.458</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5299145299145299</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="C47">
-        <v>0.5161290322580645</v>
+        <v>0.5100204498977505</v>
       </c>
       <c r="D47">
-        <v>0.4831460674157304</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="E47">
-        <v>0.5300613496932516</v>
+        <v>0.5075566750629723</v>
       </c>
       <c r="F47">
-        <v>0.425</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="G47">
-        <v>0.4848851269649335</v>
+        <v>0.5145018915510718</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5309734513274337</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C48">
-        <v>0.5127186009538951</v>
+        <v>0.5088424437299035</v>
       </c>
       <c r="D48">
-        <v>0.4077669902912621</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="E48">
-        <v>0.5235148514851485</v>
+        <v>0.5081761006289308</v>
       </c>
       <c r="F48">
-        <v>0.4347826086956522</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="G48">
-        <v>0.4884287454323995</v>
+        <v>0.5081555834378921</v>
       </c>
       <c r="H48">
-        <v>0.47</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5520833333333334</v>
+        <v>0.4959349593495935</v>
       </c>
       <c r="C49">
-        <v>0.5127301214257736</v>
+        <v>0.5096116123970185</v>
       </c>
       <c r="D49">
-        <v>0.4716981132075472</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="E49">
-        <v>0.5253164556962026</v>
+        <v>0.504914004914005</v>
       </c>
       <c r="F49">
-        <v>0.5473684210526316</v>
+        <v>0.4375</v>
       </c>
       <c r="G49">
-        <v>0.4869888475836431</v>
+        <v>0.5103280680437424</v>
       </c>
       <c r="H49">
-        <v>0.462</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5473684210526316</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C50">
-        <v>0.5135859165709912</v>
+        <v>0.5069551777434312</v>
       </c>
       <c r="D50">
-        <v>0.4339622641509434</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="E50">
-        <v>0.5171974522292994</v>
+        <v>0.511742892459827</v>
       </c>
       <c r="F50">
-        <v>0.5445544554455446</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G50">
-        <v>0.4806491885143571</v>
+        <v>0.5012285012285013</v>
       </c>
       <c r="H50">
-        <v>0.458</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5612244897959183</v>
+        <v>0.4552845528455284</v>
       </c>
       <c r="C51">
-        <v>0.5150602409638554</v>
+        <v>0.5066112580279561</v>
       </c>
       <c r="D51">
-        <v>0.4285714285714285</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E51">
-        <v>0.5259165613147914</v>
+        <v>0.5067155067155067</v>
       </c>
       <c r="F51">
-        <v>0.5533980582524272</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G51">
-        <v>0.4824561403508772</v>
+        <v>0.5006075334143378</v>
       </c>
       <c r="H51">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5151515151515151</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C52">
-        <v>0.516783474732571</v>
+        <v>0.5091247672253258</v>
       </c>
       <c r="D52">
-        <v>0.405940594059406</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E52">
-        <v>0.5265104808877928</v>
+        <v>0.5079754601226993</v>
       </c>
       <c r="F52">
-        <v>0.4411764705882353</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="G52">
-        <v>0.4833127317676144</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="H52">
-        <v>0.454</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,22 +1752,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C53">
-        <v>0.515918958031838</v>
+        <v>0.5084249084249084</v>
       </c>
       <c r="D53">
-        <v>0.4022988505747127</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="E53">
-        <v>0.5249695493300852</v>
+        <v>0.51</v>
       </c>
       <c r="F53">
-        <v>0.4157303370786517</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="G53">
-        <v>0.4939172749391728</v>
+        <v>0.5012437810945274</v>
       </c>
       <c r="H53">
         <v>0.452</v>
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4905660377358491</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="C54">
-        <v>0.5165657285358034</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="D54">
-        <v>0.4819277108433735</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="E54">
-        <v>0.5108958837772397</v>
+        <v>0.5219573400250941</v>
       </c>
       <c r="F54">
-        <v>0.4556962025316456</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="G54">
-        <v>0.4854721549636804</v>
+        <v>0.5006180469715699</v>
       </c>
       <c r="H54">
-        <v>0.454</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5252525252525253</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="C55">
-        <v>0.5182328190743338</v>
+        <v>0.5107735782409043</v>
       </c>
       <c r="D55">
-        <v>0.4534883720930232</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="E55">
-        <v>0.5102781136638452</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F55">
-        <v>0.5227272727272727</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="G55">
-        <v>0.4783653846153846</v>
+        <v>0.491358024691358</v>
       </c>
       <c r="H55">
-        <v>0.468</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.514018691588785</v>
+        <v>0.4</v>
       </c>
       <c r="C56">
-        <v>0.5153184165232358</v>
+        <v>0.511830201809325</v>
       </c>
       <c r="D56">
-        <v>0.4096385542168675</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="E56">
-        <v>0.511543134872418</v>
+        <v>0.519753086419753</v>
       </c>
       <c r="F56">
-        <v>0.5106382978723404</v>
+        <v>0.4065934065934066</v>
       </c>
       <c r="G56">
-        <v>0.4769417475728155</v>
+        <v>0.4822954822954823</v>
       </c>
       <c r="H56">
-        <v>0.468</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4948453608247423</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C57">
-        <v>0.5149456521739131</v>
+        <v>0.5136239782016349</v>
       </c>
       <c r="D57">
-        <v>0.4421052631578947</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E57">
-        <v>0.5139393939393939</v>
+        <v>0.5249695493300852</v>
       </c>
       <c r="F57">
-        <v>0.4777777777777778</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G57">
-        <v>0.4847001223990208</v>
+        <v>0.4776299879081016</v>
       </c>
       <c r="H57">
-        <v>0.454</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5363636363636364</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="C58">
-        <v>0.5155362512529235</v>
+        <v>0.5123745819397993</v>
       </c>
       <c r="D58">
-        <v>0.4482758620689655</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E58">
-        <v>0.5117719950433705</v>
+        <v>0.5164433617539586</v>
       </c>
       <c r="F58">
-        <v>0.4942528735632184</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G58">
-        <v>0.4835164835164835</v>
+        <v>0.4678571428571429</v>
       </c>
       <c r="H58">
-        <v>0.458</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4864864864864865</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C59">
-        <v>0.5153719008264462</v>
+        <v>0.508958195089582</v>
       </c>
       <c r="D59">
-        <v>0.4623655913978494</v>
+        <v>0.45</v>
       </c>
       <c r="E59">
-        <v>0.5153751537515375</v>
+        <v>0.5171149144254279</v>
       </c>
       <c r="F59">
-        <v>0.4838709677419355</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="G59">
-        <v>0.4828850855745721</v>
+        <v>0.4685990338164251</v>
       </c>
       <c r="H59">
-        <v>0.44</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4259259259259259</v>
+        <v>0.4403669724770642</v>
       </c>
       <c r="C60">
-        <v>0.5169491525423728</v>
+        <v>0.5096499836440955</v>
       </c>
       <c r="D60">
-        <v>0.4375</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="E60">
-        <v>0.5085995085995086</v>
+        <v>0.5111386138613861</v>
       </c>
       <c r="F60">
-        <v>0.4235294117647059</v>
+        <v>0.5113636363636364</v>
       </c>
       <c r="G60">
-        <v>0.4847374847374847</v>
+        <v>0.4693627450980392</v>
       </c>
       <c r="H60">
-        <v>0.436</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5384615384615384</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C61">
-        <v>0.5184590690208668</v>
+        <v>0.5091965150048403</v>
       </c>
       <c r="D61">
-        <v>0.4666666666666667</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="E61">
-        <v>0.5036945812807881</v>
+        <v>0.507537688442211</v>
       </c>
       <c r="F61">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G61">
-        <v>0.4867469879518072</v>
+        <v>0.4682926829268293</v>
       </c>
       <c r="H61">
-        <v>0.432</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5252525252525253</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C62">
-        <v>0.5166297117516629</v>
+        <v>0.5081236062440267</v>
       </c>
       <c r="D62">
-        <v>0.4777777777777778</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="E62">
-        <v>0.4932014833127318</v>
+        <v>0.5120405576679341</v>
       </c>
       <c r="F62">
-        <v>0.4831460674157304</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="G62">
-        <v>0.4889975550122249</v>
+        <v>0.4719512195121951</v>
       </c>
       <c r="H62">
-        <v>0.436</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4907407407407408</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C63">
-        <v>0.516380655226209</v>
+        <v>0.504708097928437</v>
       </c>
       <c r="D63">
-        <v>0.3829787234042553</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="E63">
-        <v>0.4932014833127318</v>
+        <v>0.5055900621118012</v>
       </c>
       <c r="F63">
-        <v>0.4222222222222222</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="G63">
-        <v>0.4914004914004914</v>
+        <v>0.4774114774114774</v>
       </c>
       <c r="H63">
-        <v>0.436</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4897959183673469</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="C64">
-        <v>0.5164869029275809</v>
+        <v>0.5066999065129324</v>
       </c>
       <c r="D64">
-        <v>0.4270833333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E64">
-        <v>0.4951100244498777</v>
+        <v>0.5076530612244898</v>
       </c>
       <c r="F64">
-        <v>0.4666666666666667</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="G64">
-        <v>0.4963592233009709</v>
+        <v>0.4766009852216749</v>
       </c>
       <c r="H64">
-        <v>0.454</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4897959183673469</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C65">
-        <v>0.5139225181598063</v>
+        <v>0.5073529411764706</v>
       </c>
       <c r="D65">
-        <v>0.4814814814814815</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="E65">
-        <v>0.4896214896214896</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="F65">
-        <v>0.4457831325301205</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
-        <v>0.4945717732207479</v>
+        <v>0.484472049689441</v>
       </c>
       <c r="H65">
-        <v>0.45</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5086206896551724</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="C66">
-        <v>0.5149432157800359</v>
+        <v>0.5060422960725075</v>
       </c>
       <c r="D66">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E66">
-        <v>0.4884848484848485</v>
+        <v>0.4955070603337612</v>
       </c>
       <c r="F66">
-        <v>0.3932584269662922</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G66">
-        <v>0.5030084235860409</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="H66">
-        <v>0.438</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5267857142857143</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C67">
-        <v>0.513938315539739</v>
+        <v>0.5056615017878426</v>
       </c>
       <c r="D67">
-        <v>0.4791666666666667</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E67">
-        <v>0.4901960784313725</v>
+        <v>0.493116395494368</v>
       </c>
       <c r="F67">
-        <v>0.40625</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="G67">
-        <v>0.5072992700729927</v>
+        <v>0.4963144963144963</v>
       </c>
       <c r="H67">
-        <v>0.424</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.4732142857142857</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C68">
-        <v>0.5128579777907656</v>
+        <v>0.5054459817486017</v>
       </c>
       <c r="D68">
-        <v>0.4719101123595505</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="E68">
-        <v>0.4969249692496925</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="F68">
-        <v>0.4326923076923077</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="G68">
-        <v>0.4987745098039216</v>
+        <v>0.4981773997569867</v>
       </c>
       <c r="H68">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4536082474226804</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C69">
-        <v>0.5162965099509662</v>
+        <v>0.5050827766482718</v>
       </c>
       <c r="D69">
-        <v>0.4895833333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E69">
-        <v>0.4939172749391728</v>
+        <v>0.4975669099756691</v>
       </c>
       <c r="F69">
-        <v>0.494949494949495</v>
+        <v>0.525</v>
       </c>
       <c r="G69">
-        <v>0.5024630541871922</v>
+        <v>0.5005988023952096</v>
       </c>
       <c r="H69">
-        <v>0.428</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4736842105263158</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="C70">
-        <v>0.5147811256395679</v>
+        <v>0.5047264394156402</v>
       </c>
       <c r="D70">
-        <v>0.3820224719101123</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="E70">
-        <v>0.4975308641975308</v>
+        <v>0.5036674816625917</v>
       </c>
       <c r="F70">
-        <v>0.4835164835164835</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="G70">
-        <v>0.4963144963144963</v>
+        <v>0.4909963985594238</v>
       </c>
       <c r="H70">
-        <v>0.428</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C71">
-        <v>0.5125387433079741</v>
+        <v>0.5038276155372838</v>
       </c>
       <c r="D71">
-        <v>0.5319148936170213</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="E71">
-        <v>0.49375</v>
+        <v>0.5055762081784386</v>
       </c>
       <c r="F71">
-        <v>0.4736842105263158</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="G71">
-        <v>0.4981366459627329</v>
+        <v>0.4993924665856622</v>
       </c>
       <c r="H71">
-        <v>0.432</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,22 +2246,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4727272727272727</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="C72">
-        <v>0.5129490392648287</v>
+        <v>0.5023869699522606</v>
       </c>
       <c r="D72">
-        <v>0.5726495726495726</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E72">
-        <v>0.479297365119197</v>
+        <v>0.5</v>
       </c>
       <c r="F72">
-        <v>0.5096153846153846</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="G72">
-        <v>0.4931335830212235</v>
+        <v>0.5024752475247525</v>
       </c>
       <c r="H72">
         <v>0.44</v>
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4869565217391305</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C73">
-        <v>0.5158620689655172</v>
+        <v>0.5044469149527515</v>
       </c>
       <c r="D73">
-        <v>0.4766355140186916</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="E73">
-        <v>0.4784810126582278</v>
+        <v>0.4993694829760403</v>
       </c>
       <c r="F73">
-        <v>0.4660194174757282</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G73">
-        <v>0.4968944099378882</v>
+        <v>0.4987531172069826</v>
       </c>
       <c r="H73">
-        <v>0.442</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,22 +2298,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4862385321100918</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C74">
-        <v>0.5126737530662305</v>
+        <v>0.5050671049027664</v>
       </c>
       <c r="D74">
-        <v>0.4375</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="E74">
-        <v>0.4870848708487085</v>
+        <v>0.4975124378109453</v>
       </c>
       <c r="F74">
-        <v>0.4838709677419355</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="G74">
-        <v>0.501219512195122</v>
+        <v>0.5024570024570024</v>
       </c>
       <c r="H74">
         <v>0.452</v>
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4473684210526316</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="C75">
-        <v>0.5118470651588584</v>
+        <v>0.5067312870220786</v>
       </c>
       <c r="D75">
-        <v>0.5393258426966292</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E75">
-        <v>0.4889705882352941</v>
+        <v>0.4925925925925926</v>
       </c>
       <c r="F75">
-        <v>0.4516129032258064</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="G75">
-        <v>0.4945454545454546</v>
+        <v>0.4981905910735827</v>
       </c>
       <c r="H75">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4736842105263158</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="C76">
-        <v>0.512519978689398</v>
+        <v>0.5053106744556559</v>
       </c>
       <c r="D76">
-        <v>0.4951456310679612</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E76">
-        <v>0.4858548585485855</v>
+        <v>0.4932515337423313</v>
       </c>
       <c r="F76">
-        <v>0.4705882352941176</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G76">
-        <v>0.4969173859432799</v>
+        <v>0.5012135922330098</v>
       </c>
       <c r="H76">
-        <v>0.472</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4646464646464646</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C77">
-        <v>0.5123945147679325</v>
+        <v>0.5061858383785207</v>
       </c>
       <c r="D77">
-        <v>0.5600000000000001</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="E77">
-        <v>0.4918648310387985</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="F77">
-        <v>0.4315789473684211</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="G77">
-        <v>0.4893882646691635</v>
+        <v>0.5048661800486618</v>
       </c>
       <c r="H77">
-        <v>0.474</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4752475247524752</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C78">
-        <v>0.5122897800776197</v>
+        <v>0.5045489992201716</v>
       </c>
       <c r="D78">
+        <v>0.3820224719101123</v>
+      </c>
+      <c r="E78">
         <v>0.5</v>
       </c>
-      <c r="E78">
-        <v>0.4938574938574938</v>
-      </c>
       <c r="F78">
-        <v>0.5242718446601942</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="G78">
-        <v>0.4957369062119367</v>
+        <v>0.5096852300242131</v>
       </c>
       <c r="H78">
-        <v>0.458</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5360824742268041</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C79">
-        <v>0.5120266120777891</v>
+        <v>0.5032241423781274</v>
       </c>
       <c r="D79">
-        <v>0.55</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="E79">
-        <v>0.4901960784313725</v>
+        <v>0.4987684729064039</v>
       </c>
       <c r="F79">
-        <v>0.5232558139534884</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="G79">
-        <v>0.4853300733496332</v>
+        <v>0.5054545454545455</v>
       </c>
       <c r="H79">
-        <v>0.456</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.494949494949495</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C80">
-        <v>0.510250569476082</v>
+        <v>0.5040774719673802</v>
       </c>
       <c r="D80">
-        <v>0.5294117647058824</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="E80">
-        <v>0.4854014598540146</v>
+        <v>0.4963054187192118</v>
       </c>
       <c r="F80">
-        <v>0.5465116279069767</v>
+        <v>0.44</v>
       </c>
       <c r="G80">
-        <v>0.4798534798534799</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="H80">
-        <v>0.472</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.509090909090909</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="C81">
-        <v>0.5103931880791385</v>
+        <v>0.5042692114515319</v>
       </c>
       <c r="D81">
-        <v>0.5151515151515151</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="E81">
-        <v>0.4847746650426309</v>
+        <v>0.4938423645320197</v>
       </c>
       <c r="F81">
-        <v>0.4782608695652174</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G81">
-        <v>0.4800965018094089</v>
+        <v>0.4975609756097561</v>
       </c>
       <c r="H81">
-        <v>0.48</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5213675213675214</v>
+        <v>0.5</v>
       </c>
       <c r="C82">
-        <v>0.5079681274900398</v>
+        <v>0.5053363117398858</v>
       </c>
       <c r="D82">
-        <v>0.4787234042553192</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="E82">
-        <v>0.4900497512437811</v>
+        <v>0.4968866749688667</v>
       </c>
       <c r="F82">
-        <v>0.4871794871794872</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="G82">
-        <v>0.498780487804878</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="H82">
-        <v>0.444</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5426356589147286</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C83">
-        <v>0.5066765578635015</v>
+        <v>0.5040630386604285</v>
       </c>
       <c r="D83">
-        <v>0.5428571428571428</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="E83">
-        <v>0.4930291508238276</v>
+        <v>0.4956304619225967</v>
       </c>
       <c r="F83">
-        <v>0.47</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="G83">
-        <v>0.4981504315659679</v>
+        <v>0.4903147699757869</v>
       </c>
       <c r="H83">
-        <v>0.456</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5495495495495496</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C84">
-        <v>0.505653883972468</v>
+        <v>0.5040253720419614</v>
       </c>
       <c r="D84">
-        <v>0.5603448275862069</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="E84">
-        <v>0.4942675159235669</v>
+        <v>0.4962593516209476</v>
       </c>
       <c r="F84">
-        <v>0.5042735042735043</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="G84">
-        <v>0.4981132075471698</v>
+        <v>0.4956949569495695</v>
       </c>
       <c r="H84">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,22 +2584,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5663716814159292</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="C85">
-        <v>0.5067994171928121</v>
+        <v>0.5036337209302325</v>
       </c>
       <c r="D85">
-        <v>0.5048543689320388</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E85">
-        <v>0.4910025706940874</v>
+        <v>0.4881987577639751</v>
       </c>
       <c r="F85">
-        <v>0.4476190476190476</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="G85">
-        <v>0.4980891719745223</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="H85">
         <v>0.434</v>
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5619047619047619</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C86">
-        <v>0.505890839144025</v>
+        <v>0.5028749401054144</v>
       </c>
       <c r="D86">
-        <v>0.3786407766990291</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E86">
-        <v>0.4905897114178168</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="F86">
-        <v>0.4864864864864865</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="G86">
-        <v>0.5080946450809465</v>
+        <v>0.4902676399026764</v>
       </c>
       <c r="H86">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4854368932038835</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C87">
-        <v>0.5060555687485158</v>
+        <v>0.5013023916646934</v>
       </c>
       <c r="D87">
-        <v>0.4411764705882353</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="E87">
-        <v>0.4962962962962963</v>
+        <v>0.4854014598540146</v>
       </c>
       <c r="F87">
-        <v>0.5277777777777778</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="G87">
-        <v>0.5037220843672456</v>
+        <v>0.4860267314702308</v>
       </c>
       <c r="H87">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="C88">
-        <v>0.5078730904817861</v>
+        <v>0.5008221752407799</v>
       </c>
       <c r="D88">
-        <v>0.4347826086956522</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E88">
-        <v>0.4987714987714988</v>
+        <v>0.4896467722289891</v>
       </c>
       <c r="F88">
-        <v>0.5360824742268041</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G88">
-        <v>0.5080147965474723</v>
+        <v>0.4884848484848485</v>
       </c>
       <c r="H88">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5294117647058824</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="C89">
-        <v>0.5083604273107292</v>
+        <v>0.50104481077316</v>
       </c>
       <c r="D89">
-        <v>0.4565217391304348</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="E89">
-        <v>0.4932680538555692</v>
+        <v>0.4950980392156863</v>
       </c>
       <c r="F89">
-        <v>0.48</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G89">
-        <v>0.5036496350364964</v>
+        <v>0.4945321992709599</v>
       </c>
       <c r="H89">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
+        <v>0.5371900826446281</v>
+      </c>
+      <c r="C90">
+        <v>0.4994251552080938</v>
+      </c>
+      <c r="D90">
         <v>0.5</v>
       </c>
-      <c r="C90">
-        <v>0.5085096596136155</v>
-      </c>
-      <c r="D90">
-        <v>0.4105263157894737</v>
-      </c>
       <c r="E90">
-        <v>0.4821648216482165</v>
+        <v>0.5036764705882353</v>
       </c>
       <c r="F90">
-        <v>0.5104166666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G90">
-        <v>0.5055487053020962</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="H90">
-        <v>0.426</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4623655913978494</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C91">
-        <v>0.5090120921743099</v>
+        <v>0.4984032846715328</v>
       </c>
       <c r="D91">
-        <v>0.4020618556701031</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E91">
-        <v>0.486318407960199</v>
+        <v>0.5055487053020962</v>
       </c>
       <c r="F91">
-        <v>0.5393258426966292</v>
+        <v>0.5</v>
       </c>
       <c r="G91">
-        <v>0.5092936802973977</v>
+        <v>0.5036144578313253</v>
       </c>
       <c r="H91">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4555555555555555</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C92">
-        <v>0.5073413146600406</v>
+        <v>0.4977457168620379</v>
       </c>
       <c r="D92">
-        <v>0.4326923076923077</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E92">
-        <v>0.4817610062893082</v>
+        <v>0.5042944785276073</v>
       </c>
       <c r="F92">
-        <v>0.5053763440860215</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="G92">
-        <v>0.5043263288009888</v>
+        <v>0.4933973589435774</v>
       </c>
       <c r="H92">
-        <v>0.448</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.38</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="C93">
-        <v>0.5088268156424581</v>
+        <v>0.4978808833370511</v>
       </c>
       <c r="D93">
-        <v>0.5588235294117647</v>
+        <v>0.625</v>
       </c>
       <c r="E93">
-        <v>0.4722921914357683</v>
+        <v>0.5079171741778319</v>
       </c>
       <c r="F93">
-        <v>0.4571428571428571</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="G93">
-        <v>0.5030826140567201</v>
+        <v>0.5012165450121655</v>
       </c>
       <c r="H93">
-        <v>0.444</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4867256637168141</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="C94">
-        <v>0.5093167701863354</v>
+        <v>0.5001104484205876</v>
       </c>
       <c r="D94">
-        <v>0.4433962264150944</v>
+        <v>0.4742268041237113</v>
       </c>
       <c r="E94">
-        <v>0.4731585518102372</v>
+        <v>0.5134146341463415</v>
       </c>
       <c r="F94">
-        <v>0.58</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="G94">
-        <v>0.5049751243781094</v>
+        <v>0.4964028776978417</v>
       </c>
       <c r="H94">
-        <v>0.462</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4953271028037383</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="C95">
-        <v>0.5068072024593764</v>
+        <v>0.5004380201489268</v>
       </c>
       <c r="D95">
-        <v>0.5257731958762887</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="E95">
-        <v>0.4797047970479705</v>
+        <v>0.5214723926380368</v>
       </c>
       <c r="F95">
-        <v>0.46</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="G95">
-        <v>0.4993924665856622</v>
+        <v>0.4921212121212121</v>
       </c>
       <c r="H95">
-        <v>0.456</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5357142857142857</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="C96">
-        <v>0.5073977371627503</v>
+        <v>0.5014102842265133</v>
       </c>
       <c r="D96">
-        <v>0.4861111111111111</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="E96">
-        <v>0.4695863746958637</v>
+        <v>0.5201958384332925</v>
       </c>
       <c r="F96">
-        <v>0.4814814814814815</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="G96">
-        <v>0.5054678007290401</v>
+        <v>0.4896719319562576</v>
       </c>
       <c r="H96">
-        <v>0.456</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5042735042735043</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C97">
-        <v>0.5063646170442287</v>
+        <v>0.5006462731581215</v>
       </c>
       <c r="D97">
-        <v>0.3764705882352941</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E97">
-        <v>0.4800965018094089</v>
+        <v>0.510353227771011</v>
       </c>
       <c r="F97">
-        <v>0.4404761904761905</v>
+        <v>0.49</v>
       </c>
       <c r="G97">
-        <v>0.498792270531401</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="H97">
-        <v>0.466</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5192307692307693</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="C98">
-        <v>0.5073891625615764</v>
+        <v>0.501384451544196</v>
       </c>
       <c r="D98">
-        <v>0.4175824175824176</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="E98">
-        <v>0.4816625916870416</v>
+        <v>0.5067319461444308</v>
       </c>
       <c r="F98">
-        <v>0.375</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="G98">
-        <v>0.5012135922330098</v>
+        <v>0.4846625766871165</v>
       </c>
       <c r="H98">
-        <v>0.48</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5056179775280899</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="C99">
-        <v>0.5059322033898305</v>
+        <v>0.5006337135614702</v>
       </c>
       <c r="D99">
-        <v>0.4285714285714285</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="E99">
-        <v>0.4845869297163995</v>
+        <v>0.4968710888610763</v>
       </c>
       <c r="F99">
-        <v>0.4395604395604396</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="G99">
-        <v>0.5024213075060533</v>
+        <v>0.4907063197026023</v>
       </c>
       <c r="H99">
-        <v>0.49</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.53125</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C100">
-        <v>0.5059836237665337</v>
+        <v>0.4997902684563759</v>
       </c>
       <c r="D100">
-        <v>0.5096153846153846</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="E100">
-        <v>0.484197218710493</v>
+        <v>0.4895191122071517</v>
       </c>
       <c r="F100">
-        <v>0.3838383838383838</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="G100">
-        <v>0.4968789013732834</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="H100">
-        <v>0.494</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="C101">
+        <v>0.4990634755463059</v>
+      </c>
+      <c r="D101">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="E101">
+        <v>0.4920245398773006</v>
+      </c>
+      <c r="F101">
         <v>0.5050505050505051</v>
       </c>
-      <c r="C101">
-        <v>0.5047976637463496</v>
-      </c>
-      <c r="D101">
-        <v>0.5089285714285714</v>
-      </c>
-      <c r="E101">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="F101">
-        <v>0.3942307692307692</v>
-      </c>
       <c r="G101">
-        <v>0.5031525851197982</v>
+        <v>0.4853300733496332</v>
       </c>
       <c r="H101">
-        <v>0.496</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
